--- a/SpaManagementV3/wiki/Meeting.xlsx
+++ b/SpaManagementV3/wiki/Meeting.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7728" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7728"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="To do" sheetId="1" r:id="rId1"/>
     <sheet name="Chu y khi lam bill" sheetId="4" r:id="rId2"/>
     <sheet name="Thong nhat y kien" sheetId="3" r:id="rId3"/>
     <sheet name="Chuan bi cac so lieu" sheetId="5" r:id="rId4"/>
@@ -1795,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D216"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
       <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
@@ -1807,12 +1807,12 @@
     <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="51" t="s">
         <v>18</v>
       </c>
@@ -2385,10 +2385,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B59" s="53"/>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B60" s="54" t="s">
         <v>18</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="33.6" x14ac:dyDescent="0.4">
       <c r="B95" s="27" t="s">
         <v>137</v>
       </c>
@@ -2941,12 +2941,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D116" s="35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D117" s="35" t="s">
         <v>158</v>
       </c>
@@ -3279,122 +3279,122 @@
         <v>203</v>
       </c>
     </row>
-    <row r="170" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D170" s="45" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="171" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B171" s="81" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="172" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B172" s="81" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="173" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B173" s="81" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="174" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B174" s="81" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="175" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B175" s="81" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="176" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B176" s="81" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B177" s="81" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B178" s="81" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B179" s="81" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B180" s="81" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B181" s="81" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B182" s="81" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B183" s="81" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B184" s="81" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B185" s="81" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B186" s="81" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B187" s="81" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B188" s="81" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B189" s="81" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B190" s="81" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B191" s="81" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B192" s="81" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B194" s="83" t="s">
         <v>230</v>
       </c>
@@ -3594,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/SpaManagementV3/wiki/Meeting.xlsx
+++ b/SpaManagementV3/wiki/Meeting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7728"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7728" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="1" r:id="rId1"/>
@@ -1795,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+    <sheetView topLeftCell="A197" workbookViewId="0">
       <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
@@ -3594,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
